--- a/output/2_client.xlsx
+++ b/output/2_client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekramulislam/Dropbox/programming/java/dhg/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D348E8-9201-D049-90AF-D8C8D8F5F93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDFB42E-DDBF-DB4A-9606-234D12F710CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{44A71EA6-D76A-1A4F-9DDB-48C60AD3862C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1020">
   <si>
     <t>(base) Ekramuls-MacBook-Pro:p ekramulislam$ java Server</t>
   </si>
@@ -3082,6 +3082,9 @@
   </si>
   <si>
     <t>Time: 0 hours, 9 minutes, 26 seconds</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -3440,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACADE57-613E-A44C-8453-133721BC9B12}">
-  <dimension ref="A1:A1029"/>
+  <dimension ref="A1:B1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1010" workbookViewId="0">
-      <selection sqref="A1:A1029"/>
+    <sheetView tabSelected="1" topLeftCell="A1006" workbookViewId="0">
+      <selection activeCell="B1034" sqref="B1034"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8538,29 +8541,34 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" s="1" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" s="1" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" s="1" t="s">
         <v>1018</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1034" t="s">
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
